--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_res_fix.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1179.145256086944</v>
+        <v>1085.537489403841</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007999897003173828</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.42298821158456</v>
+        <v>5.300554388190483</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.089230736357303</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>628.4300000000052</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.8599999999999</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.930483257745369</v>
+        <v>5.069516742254631</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9.699445611809518</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.387950720159</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>12.37517619638956</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.94333144582801</v>
+        <v>12.05666855417199</v>
       </c>
     </row>
     <row r="8">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1140,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1154,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1168,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1182,57 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>4</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5</v>
-      </c>
-      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>114.3099999999994</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1346,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>122.45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1357,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>121.5149999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1368,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>120.45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.9549999999994</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1390,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1401,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1423,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1434,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6400000000009</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1456,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>133.8550000000009</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
@@ -1467,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>143.2950000000009</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
@@ -1478,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6100000000009</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -1489,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>146.1350000000009</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -1500,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>98.04000000000102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
@@ -1511,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>95.13000000000102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -1522,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>100.9</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25">
@@ -1533,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>106.435000000001</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26">
@@ -1544,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>104.870000000001</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -1555,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1566,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1577,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1588,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1599,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1610,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>143.6400000000009</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -1621,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>133.8550000000009</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -1632,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>143.2950000000009</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
@@ -1643,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>144.6100000000009</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
@@ -1654,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>146.1350000000009</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -1665,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>114.3099999999994</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38">
@@ -1676,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.45</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39">
@@ -1687,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5149999999994</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -1698,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>120.45</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -1709,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.9549999999994</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>43.64000000000087</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1767,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.85500000000087</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1778,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>43.29500000000087</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1789,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>44.61000000000087</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1800,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>46.13500000000087</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -1811,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.30999999999942</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
@@ -1822,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>22.45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -1833,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>21.51499999999942</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1844,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>20.45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -1855,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>23.95499999999942</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1902,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1913,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1924,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1935,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1946,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1957,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1968,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1979,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1990,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2001,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2012,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -2023,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2034,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -2045,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2056,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2067,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2078,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2089,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2100,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2111,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2122,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2133,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2144,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2155,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2166,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2207,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2218,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2229,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2240,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2251,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2262,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2273,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2284,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2295,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2306,7 +2209,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -2317,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2328,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2339,12 +2242,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
